--- a/CASUAL/LA TICC/BATHAN, ELVIRA.xlsx
+++ b/CASUAL/LA TICC/BATHAN, ELVIRA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA TICC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6A063-5F9C-44C3-A9A3-51864162FA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>PERIOD</t>
   </si>
@@ -349,12 +348,15 @@
   </si>
   <si>
     <t>12/21,22,27-29/2023, 1/3/ 2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-29)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -729,14 +731,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -746,9 +751,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,7 +1262,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1277,25 +1279,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K103" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K103" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1307,25 +1309,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K59" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K59" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1632,34 +1634,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A80" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1671,16 +1673,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1689,18 +1691,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <v>38362</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1711,16 +1713,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1728,7 +1730,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1741,24 +1743,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1802,7 +1804,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>50.25</v>
+        <v>50.19</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1817,7 +1819,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1839,7 +1841,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1859,7 +1861,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>43148</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1909,7 +1911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -1931,7 +1933,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43191</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43221</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43252</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>43231</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43282</v>
       </c>
@@ -2029,7 +2031,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43313</v>
       </c>
@@ -2047,7 +2049,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43344</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>52</v>
@@ -2093,7 +2095,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43374</v>
       </c>
@@ -2113,7 +2115,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>43405</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -2161,7 +2163,7 @@
         <v>43431</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43435</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="20" t="s">
         <v>88</v>
@@ -2207,7 +2209,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>59</v>
       </c>
@@ -2225,7 +2227,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43466</v>
       </c>
@@ -2245,7 +2247,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43497</v>
       </c>
@@ -2271,7 +2273,7 @@
         <v>43505</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43525</v>
       </c>
@@ -2291,7 +2293,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43556</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43586</v>
       </c>
@@ -2337,7 +2339,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43617</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>52</v>
@@ -2385,7 +2387,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43647</v>
       </c>
@@ -2405,7 +2407,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>43678</v>
       </c>
@@ -2425,7 +2427,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43709</v>
       </c>
@@ -2445,7 +2447,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43739</v>
       </c>
@@ -2465,7 +2467,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43770</v>
       </c>
@@ -2485,7 +2487,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43800</v>
       </c>
@@ -2513,7 +2515,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="47" t="s">
         <v>68</v>
       </c>
@@ -2531,7 +2533,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43831</v>
       </c>
@@ -2551,7 +2553,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>43862</v>
       </c>
@@ -2571,7 +2573,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>43891</v>
       </c>
@@ -2591,7 +2593,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>43922</v>
       </c>
@@ -2611,7 +2613,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>43952</v>
       </c>
@@ -2631,7 +2633,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>43983</v>
       </c>
@@ -2651,7 +2653,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44013</v>
       </c>
@@ -2671,7 +2673,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>44044</v>
       </c>
@@ -2691,7 +2693,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44075</v>
       </c>
@@ -2711,7 +2713,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44105</v>
       </c>
@@ -2731,7 +2733,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44136</v>
       </c>
@@ -2751,7 +2753,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44166</v>
       </c>
@@ -2773,7 +2775,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>78</v>
       </c>
@@ -2791,7 +2793,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44197</v>
       </c>
@@ -2811,7 +2813,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44228</v>
       </c>
@@ -2831,7 +2833,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44256</v>
       </c>
@@ -2857,7 +2859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44287</v>
       </c>
@@ -2877,7 +2879,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44317</v>
       </c>
@@ -2897,7 +2899,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44348</v>
       </c>
@@ -2917,7 +2919,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44378</v>
       </c>
@@ -2937,7 +2939,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>44409</v>
       </c>
@@ -2957,7 +2959,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="48"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44440</v>
       </c>
@@ -2977,7 +2979,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44470</v>
       </c>
@@ -2997,7 +2999,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44501</v>
       </c>
@@ -3017,7 +3019,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44531</v>
       </c>
@@ -3037,7 +3039,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>82</v>
       </c>
@@ -3055,7 +3057,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44562</v>
       </c>
@@ -3081,7 +3083,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44593</v>
       </c>
@@ -3101,15 +3103,19 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44621</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="40"/>
+      <c r="D70" s="40">
+        <v>6.0000000000000019E-2</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -3121,7 +3127,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44652</v>
       </c>
@@ -3141,7 +3147,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44682</v>
       </c>
@@ -3161,7 +3167,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44713</v>
       </c>
@@ -3181,7 +3187,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44743</v>
       </c>
@@ -3201,7 +3207,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>44774</v>
       </c>
@@ -3221,7 +3227,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44805</v>
       </c>
@@ -3241,7 +3247,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44835</v>
       </c>
@@ -3261,7 +3267,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44866</v>
       </c>
@@ -3281,7 +3287,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>44896</v>
       </c>
@@ -3301,7 +3307,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
         <v>89</v>
       </c>
@@ -3319,7 +3325,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>44927</v>
       </c>
@@ -3339,7 +3345,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>44958</v>
       </c>
@@ -3359,7 +3365,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>44986</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45017</v>
       </c>
@@ -3405,7 +3411,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45047</v>
       </c>
@@ -3425,7 +3431,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45078</v>
       </c>
@@ -3445,7 +3451,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45108</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>45139</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>45170</v>
       </c>
@@ -3515,7 +3521,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>45200</v>
       </c>
@@ -3539,7 +3545,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>45231</v>
       </c>
@@ -3563,7 +3569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>45261</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>95</v>
       </c>
@@ -3609,7 +3615,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>45292</v>
       </c>
@@ -3627,7 +3633,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>45323</v>
       </c>
@@ -3645,7 +3651,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>45352</v>
       </c>
@@ -3663,7 +3669,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41">
         <v>45383</v>
       </c>
@@ -3681,7 +3687,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>45413</v>
       </c>
@@ -3699,7 +3705,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>45444</v>
       </c>
@@ -3717,7 +3723,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>45474</v>
       </c>
@@ -3735,7 +3741,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>45505</v>
       </c>
@@ -3753,7 +3759,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>45536</v>
       </c>
@@ -3771,7 +3777,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>45566</v>
       </c>
@@ -3791,23 +3797,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3830,34 +3836,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K59"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4248" topLeftCell="A24" activePane="bottomLeft"/>
+      <pane ySplit="4245" topLeftCell="A24" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3869,16 +3875,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3887,18 +3893,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="54">
         <v>38362</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3909,16 +3915,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3926,7 +3932,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3939,24 +3945,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4015,7 +4021,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -4037,7 +4043,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43313</v>
       </c>
@@ -4059,7 +4065,7 @@
         <v>43331</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="47" t="s">
         <v>59</v>
       </c>
@@ -4077,7 +4083,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>43617</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43647</v>
       </c>
@@ -4125,7 +4131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>55</v>
@@ -4145,7 +4151,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43709</v>
       </c>
@@ -4169,7 +4175,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43739</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>68</v>
       </c>
@@ -4211,7 +4217,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43831</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43862</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>52</v>
@@ -4277,7 +4283,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>44075</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>52</v>
@@ -4323,7 +4329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41"/>
       <c r="B24" s="20" t="s">
         <v>52</v>
@@ -4345,7 +4351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>44105</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>78</v>
       </c>
@@ -4387,7 +4393,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>44256</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>44409</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>44427</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>82</v>
       </c>
@@ -4451,7 +4457,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>44682</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>44713</v>
       </c>
@@ -4499,7 +4505,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>44774</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>89</v>
       </c>
@@ -4539,7 +4545,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>45047</v>
       </c>
@@ -4563,7 +4569,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="20" t="s">
         <v>79</v>
@@ -4585,7 +4591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>45200</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>94</v>
@@ -4631,7 +4637,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>45231</v>
       </c>
@@ -4655,7 +4661,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41"/>
       <c r="B39" s="20" t="s">
         <v>99</v>
@@ -4677,7 +4683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4693,7 +4699,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4709,7 +4715,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4725,7 +4731,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4741,7 +4747,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4757,7 +4763,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4773,7 +4779,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4789,7 +4795,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4805,7 +4811,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4821,7 +4827,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4837,7 +4843,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4853,7 +4859,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4869,7 +4875,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4885,7 +4891,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4901,7 +4907,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4917,7 +4923,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4933,7 +4939,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4949,7 +4955,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4965,7 +4971,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4981,7 +4987,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42"/>
       <c r="B59" s="15"/>
       <c r="C59" s="43"/>
@@ -5012,10 +5018,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5038,28 +5044,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -5072,7 +5078,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>33.625</v>
       </c>
@@ -5110,10 +5116,12 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>29</v>
+      </c>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>0</v>
+        <v>6.0000000000000019E-2</v>
       </c>
       <c r="J3" s="35"/>
       <c r="K3" s="36">
@@ -5125,14 +5133,14 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>0</v>
+        <v>6.0000000000000019E-2</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
@@ -5140,10 +5148,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5163,7 +5171,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5189,7 +5197,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5241,7 +5249,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5267,7 +5275,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5293,7 +5301,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5319,7 +5327,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5371,7 +5379,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5411,7 +5419,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5431,7 +5439,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5452,7 +5460,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5494,7 +5502,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5557,7 +5565,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5578,7 +5586,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5599,7 +5607,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5620,7 +5628,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5641,7 +5649,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5662,7 +5670,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5683,7 +5691,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5704,7 +5712,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5725,7 +5733,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5746,7 +5754,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5767,7 +5775,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5788,7 +5796,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5809,7 +5817,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5830,7 +5838,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5851,7 +5859,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -5860,7 +5868,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -5869,7 +5877,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -5878,7 +5886,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -5887,7 +5895,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -5896,7 +5904,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -5905,7 +5913,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -5914,7 +5922,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -5923,7 +5931,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -5932,7 +5940,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -5941,7 +5949,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -5950,7 +5958,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -5959,7 +5967,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -5968,7 +5976,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -5977,7 +5985,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -5986,7 +5994,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -5995,7 +6003,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6004,7 +6012,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6013,7 +6021,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6022,7 +6030,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6031,7 +6039,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6040,7 +6048,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6049,7 +6057,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6058,7 +6066,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6067,7 +6075,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6076,7 +6084,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6085,7 +6093,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6094,7 +6102,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6103,7 +6111,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6112,7 +6120,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA TICC/BATHAN, ELVIRA.xlsx
+++ b/CASUAL/LA TICC/BATHAN, ELVIRA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>PERIOD</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>UT(0-0-29)</t>
+  </si>
+  <si>
+    <t>ANNIV. 02/14/2024</t>
   </si>
 </sst>
 </file>
@@ -731,17 +734,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -751,6 +751,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1641,9 +1644,9 @@
   <dimension ref="A2:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <pane ySplit="3690" topLeftCell="A83" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,14 +1676,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1691,16 +1694,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>38362</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1713,14 +1716,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1746,18 +1749,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1804,7 +1807,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>50.19</v>
+        <v>52.69</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1814,7 +1817,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>59.25</v>
+        <v>61.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3552,13 +3555,15 @@
       <c r="B91" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="40"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="40">
         <v>2</v>
@@ -3620,13 +3625,15 @@
         <v>45292</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="40"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="40"/>
       <c r="I94" s="9"/>
@@ -3637,7 +3644,9 @@
       <c r="A95" s="41">
         <v>45323</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="40"/>
       <c r="E95" s="9"/>
@@ -3649,7 +3658,9 @@
       <c r="H95" s="40"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
@@ -3797,19 +3808,19 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
@@ -3875,14 +3886,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3893,16 +3904,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="53">
         <v>38362</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3915,14 +3926,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3948,18 +3959,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
